--- a/Tableau-suivi-tache-S3.xlsx
+++ b/Tableau-suivi-tache-S3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="8747"/>
+    <workbookView windowWidth="23040" windowHeight="8844"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="50">
   <si>
     <t>Catégorie</t>
   </si>
@@ -149,6 +149,21 @@
   </si>
   <si>
     <t>SaisieDepense</t>
+  </si>
+  <si>
+    <t>2 eme partie</t>
+  </si>
+  <si>
+    <t>Mois de generation</t>
+  </si>
+  <si>
+    <t>NouveauPoids</t>
+  </si>
+  <si>
+    <t>Sarobidy + Toky</t>
+  </si>
+  <si>
+    <t>Resultat</t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1355,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1411,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <f>(G2/(G2+H2))</f>
+        <f t="shared" ref="I2:I25" si="0">(G2/(G2+H2))</f>
         <v>1</v>
       </c>
     </row>
@@ -1441,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <f>(G3/(G3+H3))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1471,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f>(G4/(G4+H4))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1501,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <f>(G5/(G5+H5))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1531,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <f>(G6/(G6+H6))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1561,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f>(G7/(G7+H7))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1591,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f>(G8/(G8+H8))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1621,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <f>(G9/(G9+H9))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1651,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="5">
-        <f>(G10/(G10+H10))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1681,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="5">
-        <f>(G11/(G11+H11))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1711,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="5">
-        <f>(G12/(G12+H12))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1741,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="5">
-        <f>(G13/(G13+H13))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1771,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="5">
-        <f>(G14/(G14+H14))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1801,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="5">
-        <f>(G15/(G15+H15))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1831,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="5">
-        <f>(G16/(G16+H16))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1861,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="5">
-        <f>(G17/(G17+H17))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1891,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="5">
-        <f>(G18/(G18+H18))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1921,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="5">
-        <f>(G19/(G19+H19))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1951,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="5">
-        <f>(G20/(G20+H20))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1981,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="5">
-        <f>(G21/(G21+H21))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2011,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="5">
-        <f>(G22/(G22+H22))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2038,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="5">
-        <f>(G23/(G23+H23))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2068,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="5">
-        <f>(G24/(G24+H24))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2095,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="5">
-        <f>(G25/(G25+H25))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2128,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="5">
-        <f>(G27/(G27+H27))</f>
+        <f t="shared" ref="I27:I33" si="1">(G27/(G27+H27))</f>
         <v>1</v>
       </c>
     </row>
@@ -2158,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="5">
-        <f>(G28/(G28+H28))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2188,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="5">
-        <f>(G29/(G29+H29))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2218,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="5">
-        <f>(G30/(G30+H30))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2248,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="5">
-        <f>(G31/(G31+H31))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2275,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="5">
-        <f>(G32/(G32+H32))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2302,8 +2317,269 @@
         <v>0</v>
       </c>
       <c r="I33" s="5">
-        <f>(G33/(G33+H33))</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="5:9">
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" ref="I34:I45" si="2">(G37/(G37+H37))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="2"/>
+        <v>0.714285714285714</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau-suivi-tache-S3.xlsx
+++ b/Tableau-suivi-tache-S3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="56">
   <si>
     <t>Catégorie</t>
   </si>
@@ -164,6 +164,24 @@
   </si>
   <si>
     <t>Resultat</t>
+  </si>
+  <si>
+    <t>Insertion prix de vente</t>
+  </si>
+  <si>
+    <t>Insertion et creation</t>
+  </si>
+  <si>
+    <t>Liste de Paiement</t>
+  </si>
+  <si>
+    <t>3eme partie</t>
+  </si>
+  <si>
+    <t>Prevision</t>
+  </si>
+  <si>
+    <t>Toky+Sarobidy+Lucas</t>
   </si>
 </sst>
 </file>
@@ -1355,10 +1373,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2582,6 +2600,313 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>12</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
+        <f>(G46/(G46+H46))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <f>(G47/(G47+H47))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <f>(G48/(G48+H48))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
+        <f>(G49/(G49+H49))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <f>(G50/(G50+H50))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51">
+        <v>12</v>
+      </c>
+      <c r="G51">
+        <v>17</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <f>(G51/(G51+H51))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5">
+        <f>(G52/(G52+H52))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="4:9">
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>7</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <f>(G56/(G56+H56))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="5">
+        <f>(G57/(G57+H57))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Tableau-suivi-tache-S3.xlsx
+++ b/Tableau-suivi-tache-S3.xlsx
@@ -1376,7 +1376,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="I57" sqref="I57:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" ref="I34:I45" si="2">(G37/(G37+H37))</f>
+        <f t="shared" ref="I34:I52" si="2">(G37/(G37+H37))</f>
         <v>1</v>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="5">
-        <f>(G46/(G46+H46))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="5">
-        <f>(G47/(G47+H47))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="5">
-        <f>(G48/(G48+H48))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="5">
-        <f>(G49/(G49+H49))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="5">
-        <f>(G50/(G50+H50))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="5">
-        <f>(G51/(G51+H51))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="5">
-        <f>(G52/(G52+H52))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -2889,8 +2889,18 @@
       <c r="F58">
         <v>40</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>40</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="5">
+        <f>(G58/(G58+H58))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -2905,6 +2915,16 @@
       </c>
       <c r="F59">
         <v>30</v>
+      </c>
+      <c r="G59">
+        <v>30</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="5">
+        <f>(G59/(G59+H59))</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
